--- a/JobList/jobListing.xlsx
+++ b/JobList/jobListing.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/8a029739977af311/Documents/vs_code_portal/codeWorks/Careers/JobList/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{669CF2C6-6BAE-4193-9C98-CAEFB886A69A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="14_{5C65E3E6-BD9B-4FF4-8DC4-F0258E23A9B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="22695" windowHeight="15196" xr2:uid="{CC2CAAB3-6C1B-4CF2-8CE5-41F27911FC98}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="50">
   <si>
     <t>Job Title</t>
   </si>
@@ -87,16 +87,103 @@
     <t>Indeed</t>
   </si>
   <si>
-    <t>Discord Careers and Employment | Indeed.com</t>
-  </si>
-  <si>
     <t>Software Engineer - Storage Infrastructure</t>
   </si>
   <si>
     <t>n/a</t>
   </si>
   <si>
-    <t>(99+) Java Web Developer | Insight Global | LinkedIn</t>
+    <t>Part Time Web Developer</t>
+  </si>
+  <si>
+    <t>Klover </t>
+  </si>
+  <si>
+    <t>Frontend Web Developer</t>
+  </si>
+  <si>
+    <t>Quality Assurance Engineer</t>
+  </si>
+  <si>
+    <t>(99+) Western Digital: Life | LinkedIn</t>
+  </si>
+  <si>
+    <t>linkdin</t>
+  </si>
+  <si>
+    <t>Moody's Analytics | Risk Management, Credit Ratings Research, Software (moodysanalytics.com)</t>
+  </si>
+  <si>
+    <t>Web Developer</t>
+  </si>
+  <si>
+    <t>Software Engineer - Storage Infrastructure at Discord</t>
+  </si>
+  <si>
+    <t>Product</t>
+  </si>
+  <si>
+    <t>Service</t>
+  </si>
+  <si>
+    <t>HTML, DOM, CSS, React, JavaScript</t>
+  </si>
+  <si>
+    <t> We’re systematically leveling the playing field by giving low cost access to modern financial services.</t>
+  </si>
+  <si>
+    <t>Discord is a voice, video and text app that helps friends and communities come together to hang out and explore their interests - from artists and act...</t>
+  </si>
+  <si>
+    <t>Providing decision makers with tools, insights and analytics to make better decisions</t>
+  </si>
+  <si>
+    <t>At Rooster Grin, each of our services are specifically designed to create a competitive advantage for our clients.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">We believe that if we can develop our people to become the best versions of themselves, </t>
+  </si>
+  <si>
+    <t>Insight Global</t>
+  </si>
+  <si>
+    <t>We connect job seekers with hiring managers at awesome companies</t>
+  </si>
+  <si>
+    <t>Blue Scientific provides market-leading scientific instruments in the UK, Ireland and Nordic region (Norway, Denmark, Sweden, Finland, Iceland). </t>
+  </si>
+  <si>
+    <t>The power of technology at work on your money</t>
+  </si>
+  <si>
+    <t>Help you do what you do, even better.</t>
+  </si>
+  <si>
+    <t>Java, HIPAA</t>
+  </si>
+  <si>
+    <t>JIRA , Jenkins, Documentation</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> JavaScript, Java, Python, Ruby, C/C++, Golang</t>
+  </si>
+  <si>
+    <t xml:space="preserve">JavaScript, WordPress, CSS, HTML: </t>
+  </si>
+  <si>
+    <t>Web Developer (Support) - San Francisco, CA 94102 - Indeed.com</t>
+  </si>
+  <si>
+    <t>Cassandra, DynamoDB, Postgres w/HA, Kubernetes</t>
+  </si>
+  <si>
+    <t>Full Stack – JavaScript Developer</t>
+  </si>
+  <si>
+    <t>(99+) Full Stack – JavaScript Developer (Office or Remote) | Moody's Analytics | LinkedIn</t>
+  </si>
+  <si>
+    <t>HTML, DOM, CSS,, JavaScript</t>
   </si>
 </sst>
 </file>
@@ -106,7 +193,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="00000"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -121,6 +208,19 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF343441"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="3">
@@ -150,7 +250,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment shrinkToFit="1"/>
@@ -163,6 +263,11 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -176,39 +281,39 @@
           <bgColor theme="3" tint="0.79998168889431442"/>
         </patternFill>
       </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="3" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="3" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="3" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="3" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="3" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="3" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="3" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="3" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
     </dxf>
     <dxf>
       <fill>
@@ -280,28 +385,28 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{51D9B3B9-121B-4EDB-B37A-EEAF5CA2DD0E}" name="Table1" displayName="Table1" ref="C1:J12" totalsRowShown="0" dataDxfId="4">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{51D9B3B9-121B-4EDB-B37A-EEAF5CA2DD0E}" name="Table1" displayName="Table1" ref="C1:J12" totalsRowShown="0" dataDxfId="11">
   <autoFilter ref="C1:J12" xr:uid="{51D9B3B9-121B-4EDB-B37A-EEAF5CA2DD0E}"/>
   <tableColumns count="8">
-    <tableColumn id="1" xr3:uid="{E9AA92FC-6540-4FED-BC1E-A852BA1B933A}" name="Job Title" dataDxfId="11"/>
-    <tableColumn id="2" xr3:uid="{39A4B85F-B2EA-458C-8E94-A51FE2A67F39}" name="Job Listing" dataDxfId="10"/>
-    <tableColumn id="3" xr3:uid="{CC297246-AEBC-4E36-8DBB-1BDE3635B9D2}" name="Date applied" dataDxfId="9"/>
-    <tableColumn id="4" xr3:uid="{3DBE6006-3F59-4194-B877-5413BEE0619A}" name="Technologies this company uses" dataDxfId="8"/>
-    <tableColumn id="5" xr3:uid="{2397A98C-D83A-4C6A-99A1-6133469B04C2}" name="Product or service?" dataDxfId="7"/>
-    <tableColumn id="6" xr3:uid="{AEA5E73C-5CC0-4188-9F8B-49C744F6056B}" name="Mission or Vision" dataDxfId="6"/>
-    <tableColumn id="7" xr3:uid="{E8CF6BC6-FC5C-4577-B2CA-3805519CCEB4}" name="What's unique about them? Culture? Reviews?" dataDxfId="0"/>
-    <tableColumn id="8" xr3:uid="{055B665A-1C30-46AE-A2E8-EBEA8B0AC685}" name="Why are you interested in this company?" dataDxfId="5"/>
+    <tableColumn id="1" xr3:uid="{E9AA92FC-6540-4FED-BC1E-A852BA1B933A}" name="Job Title" dataDxfId="10"/>
+    <tableColumn id="2" xr3:uid="{39A4B85F-B2EA-458C-8E94-A51FE2A67F39}" name="Job Listing" dataDxfId="9"/>
+    <tableColumn id="3" xr3:uid="{CC297246-AEBC-4E36-8DBB-1BDE3635B9D2}" name="Date applied" dataDxfId="8"/>
+    <tableColumn id="4" xr3:uid="{3DBE6006-3F59-4194-B877-5413BEE0619A}" name="Technologies this company uses" dataDxfId="7"/>
+    <tableColumn id="5" xr3:uid="{2397A98C-D83A-4C6A-99A1-6133469B04C2}" name="Product or service?" dataDxfId="6"/>
+    <tableColumn id="6" xr3:uid="{AEA5E73C-5CC0-4188-9F8B-49C744F6056B}" name="Mission or Vision" dataDxfId="5"/>
+    <tableColumn id="7" xr3:uid="{E8CF6BC6-FC5C-4577-B2CA-3805519CCEB4}" name="What's unique about them? Culture? Reviews?" dataDxfId="4"/>
+    <tableColumn id="8" xr3:uid="{055B665A-1C30-46AE-A2E8-EBEA8B0AC685}" name="Why are you interested in this company?" dataDxfId="3"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight13" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{7EBF1F03-5128-4960-94B9-C528BD2F8FE5}" name="Table2" displayName="Table2" ref="A1:B12" totalsRowShown="0" dataDxfId="1">
-  <autoFilter ref="A1:B12" xr:uid="{7EBF1F03-5128-4960-94B9-C528BD2F8FE5}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{7EBF1F03-5128-4960-94B9-C528BD2F8FE5}" name="Table2" displayName="Table2" ref="A1:B13" totalsRowShown="0" dataDxfId="2">
+  <autoFilter ref="A1:B13" xr:uid="{7EBF1F03-5128-4960-94B9-C528BD2F8FE5}"/>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{662EA3BC-73AB-4A2D-9BC9-2FA06EE6676C}" name="Compnay Name" dataDxfId="3"/>
-    <tableColumn id="2" xr3:uid="{57C32940-0538-4DB3-9E27-DAC4D98912FC}" name="Point of Contact" dataDxfId="2"/>
+    <tableColumn id="1" xr3:uid="{662EA3BC-73AB-4A2D-9BC9-2FA06EE6676C}" name="Compnay Name" dataDxfId="1"/>
+    <tableColumn id="2" xr3:uid="{57C32940-0538-4DB3-9E27-DAC4D98912FC}" name="Point of Contact" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight13" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -604,10 +709,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9F62969C-9762-460B-A57D-427D199451C4}">
-  <dimension ref="A1:J12"/>
+  <dimension ref="A1:J13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -663,16 +768,22 @@
         <v>10</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="C2" s="2"/>
+        <v>18</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>17</v>
+      </c>
       <c r="D2" s="2" t="s">
         <v>16</v>
       </c>
       <c r="E2" s="2"/>
       <c r="F2" s="2"/>
-      <c r="G2" s="2"/>
-      <c r="H2" s="2"/>
+      <c r="G2" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>38</v>
+      </c>
       <c r="I2" s="4"/>
       <c r="J2" s="2"/>
     </row>
@@ -681,16 +792,22 @@
         <v>11</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="C3" s="2"/>
+        <v>18</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>26</v>
+      </c>
       <c r="D3" s="2" t="s">
         <v>16</v>
       </c>
       <c r="E3" s="2"/>
       <c r="F3" s="2"/>
-      <c r="G3" s="2"/>
-      <c r="H3" s="2"/>
+      <c r="G3" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>39</v>
+      </c>
       <c r="I3" s="4"/>
       <c r="J3" s="2"/>
     </row>
@@ -699,7 +816,7 @@
         <v>12</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>15</v>
@@ -708,9 +825,15 @@
         <v>16</v>
       </c>
       <c r="E4" s="2"/>
-      <c r="F4" s="2"/>
-      <c r="G4" s="2"/>
-      <c r="H4" s="2"/>
+      <c r="F4" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>40</v>
+      </c>
       <c r="I4" s="4"/>
       <c r="J4" s="2"/>
     </row>
@@ -719,7 +842,7 @@
         <v>13</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>14</v>
@@ -729,58 +852,72 @@
       </c>
       <c r="E5" s="2"/>
       <c r="F5" s="2"/>
-      <c r="G5" s="2"/>
-      <c r="H5" s="2"/>
+      <c r="G5" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>37</v>
+      </c>
       <c r="I5" s="4"/>
       <c r="J5" s="2"/>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A6" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C6" s="2" t="s">
         <v>17</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>18</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>16</v>
       </c>
       <c r="E6" s="2"/>
-      <c r="F6" s="2"/>
-      <c r="G6" s="2"/>
-      <c r="H6" s="2"/>
+      <c r="F6" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>32</v>
+      </c>
       <c r="I6" s="4"/>
       <c r="J6" s="2"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A7" s="5" t="s">
-        <v>20</v>
+      <c r="A7" s="8" t="s">
+        <v>36</v>
       </c>
       <c r="B7" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C7" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="C7" s="2"/>
       <c r="D7" s="2" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="E7" s="2"/>
-      <c r="F7" s="2"/>
-      <c r="G7" s="2"/>
-      <c r="H7" s="2"/>
+      <c r="F7" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>35</v>
+      </c>
       <c r="I7" s="4"/>
       <c r="J7" s="2"/>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A8" s="2"/>
-      <c r="B8" s="2" t="s">
-        <v>19</v>
-      </c>
+      <c r="B8" s="2"/>
       <c r="C8" s="2"/>
-      <c r="D8" s="2" t="s">
-        <v>16</v>
-      </c>
+      <c r="D8" s="2"/>
       <c r="E8" s="2"/>
       <c r="F8" s="2"/>
       <c r="G8" s="2"/>
@@ -789,68 +926,112 @@
       <c r="J8" s="2"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A9" s="2"/>
+      <c r="A9" s="5" t="s">
+        <v>45</v>
+      </c>
       <c r="B9" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C9" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="C9" s="2"/>
       <c r="D9" s="2" t="s">
         <v>16</v>
       </c>
       <c r="E9" s="2"/>
-      <c r="F9" s="2"/>
-      <c r="G9" s="2"/>
-      <c r="H9" s="2"/>
+      <c r="F9" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>34</v>
+      </c>
       <c r="I9" s="4"/>
       <c r="J9" s="2"/>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A10" s="2"/>
+      <c r="A10" s="5" t="s">
+        <v>20</v>
+      </c>
       <c r="B10" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="C10" s="2"/>
+        <v>18</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>21</v>
+      </c>
       <c r="D10" s="2" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="E10" s="2"/>
-      <c r="F10" s="2"/>
-      <c r="G10" s="2"/>
-      <c r="H10" s="2"/>
+      <c r="F10" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="H10" s="2" t="s">
+        <v>31</v>
+      </c>
       <c r="I10" s="4"/>
       <c r="J10" s="2"/>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A11" s="2"/>
+      <c r="A11" s="5" t="s">
+        <v>23</v>
+      </c>
       <c r="B11" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="C11" s="2"/>
+        <v>18</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>22</v>
+      </c>
       <c r="D11" s="2" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="E11" s="2"/>
-      <c r="F11" s="2"/>
-      <c r="G11" s="2"/>
+      <c r="F11" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>29</v>
+      </c>
       <c r="H11" s="2"/>
       <c r="I11" s="4"/>
       <c r="J11" s="2"/>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A12" s="2"/>
+      <c r="A12" s="5" t="s">
+        <v>25</v>
+      </c>
       <c r="B12" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="C12" s="2"/>
+        <v>18</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>47</v>
+      </c>
       <c r="D12" s="2" t="s">
         <v>16</v>
       </c>
       <c r="E12" s="2"/>
-      <c r="F12" s="2"/>
-      <c r="G12" s="2"/>
-      <c r="H12" s="2"/>
+      <c r="F12" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="H12" s="7" t="s">
+        <v>33</v>
+      </c>
       <c r="I12" s="4"/>
       <c r="J12" s="2"/>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A13" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="B13" s="2"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -858,14 +1039,18 @@
     <hyperlink ref="A3" r:id="rId2" display="https://www.intuit.com/" xr:uid="{C4E6A8C7-5CE9-4B93-AE37-A170A49AF48C}"/>
     <hyperlink ref="A4" r:id="rId3" display="https://www.indeed.com/cmp/Twitch?from=mobviewjob&amp;tk=1fbpg23ihpi0k800&amp;fromjk=5da99fdbafeded05&amp;attributionid=mobvjcmp" xr:uid="{3CD40F37-1CD8-4FF3-A26A-FC089329D71F}"/>
     <hyperlink ref="A5" r:id="rId4" display="https://www.indeed.com/viewjob?cmp=Underdog.io&amp;t=Front+End+Developer&amp;jk=fd0c3bbe00674e2a&amp;sjdu=RoQvwkLXviDH9H0R9RONrFZwr5G4ngzoiIAEc4xCj0lEJ6ydNxou-oYfX0glsBWz19QB0stklqp1PT960WVq78vsmNgzq4znRBod59snjhNSfzXl9ndCpJhHKYoOOasp0aCjOiKTPms-bNDF2O4VzCefNu1aqvgl913CziTKNLEMrWL5e9jRJvRiYn97CxIJS3F45LgYaic77r5W0Pnn0ShFvpH5aj1Vffju-mjbPcI&amp;tk=1fbpg0e9i39qv001&amp;adid=372852717&amp;ad=-6NYlbfkN0AMrEUdIxhUDi4JaB8HlJ3ajS0ipebGaj6lY-2pm3XmR0lyEVSUzZ_tKBqfdGRmaTjBJA-qh-sf8Jj-Vz-9k8yBvjhxlmXkALF7V6ey4aReWePzYJ5VLHhlCluPXUlEvGvIb5O7GbLPfpAR9NgtS1qx8svpBb6WCIG7z2ZI7NykUp3vndfwnBXSoXLSY3F4S1wTWlj565gxPsfy9pLu5U40lm0rWldhjM1sxn-EY92iUbgv39uGB06Fwy2K0dw_ktSc8vLi9kkQ0m213_B-45Z1uelKeGNS38MdvDVZrNBej25YJ9c-Tt_RldBhh8JLerYt8grkzqvBbzvQhhAp3imVAd2YC5y6AX9T8D8NhlRuHhh-UiPbb6mp-5NJXHXaRRM%3D&amp;pub=4a1b367933fd867b19b072952f68dceb&amp;vjs=3" xr:uid="{8B95AD00-7351-4F53-8FE3-BEC8AA54D3D3}"/>
-    <hyperlink ref="A6" r:id="rId5" display="https://www.indeed.com/cmp/Discord?from=mobviewjob&amp;tk=1fbpghqdqpi0k800&amp;fromjk=9d9a436da710ea16&amp;attributionid=mobvjcmp" xr:uid="{14AE30C2-77FB-4A50-A119-1958E111E814}"/>
-    <hyperlink ref="A7" r:id="rId6" display="https://www.linkedin.com/jobs/view/2657335545/?eBP=JOB_SEARCH_ORGANIC&amp;recommendedFlavor=SCHOOL_RECRUIT&amp;refId=RS%2FfKD3mfnwSJDSeVqxdhA%3D%3D&amp;trackingId=uE8uwV0uInBtuaWiHx74kw%3D%3D&amp;trk=flagship3_search_srp_jobs" xr:uid="{4E459F89-DB71-4467-A0C6-C3BDBD853628}"/>
+    <hyperlink ref="A10" r:id="rId5" display="https://www.linkedin.com/company/joinklover/life/" xr:uid="{26E7DC78-A2BE-4613-BDD2-5AAB302067AF}"/>
+    <hyperlink ref="A11" r:id="rId6" display="https://www.linkedin.com/company/western-digital/life/b84f499a-1073-4888-9b18-1fc206968a72/" xr:uid="{BD3F75A8-730F-43E7-9C8E-F36E24D5239B}"/>
+    <hyperlink ref="A12" r:id="rId7" display="https://www.moodysanalytics.com/" xr:uid="{9F7BE5D4-0C7D-4E88-B7BF-2D9F6DF8E198}"/>
+    <hyperlink ref="A6" r:id="rId8" display="https://discord.com/jobs/5426301002" xr:uid="{A30A7A92-54F5-45C4-A0EA-258619AA89A4}"/>
+    <hyperlink ref="A9" r:id="rId9" display="https://www.indeed.com/viewjob?cmp=Rooster-Grin-Media&amp;t=Web+Developer&amp;jk=071993eb5453bc7e&amp;q=Web+Development&amp;vjs=3" xr:uid="{F3BEE075-4FBA-41E8-84F4-4B81314CEDBF}"/>
+    <hyperlink ref="A13" r:id="rId10" display="https://www.linkedin.com/jobs/view/2605313120/?alternateChannel=smljob&amp;alternateCode=seturl&amp;eBP=CwEAAAF68xR9BFZmgs3YYmGuV6a4CkrjWwtTwIoI1yUeW6xw9Rd3j3GY5D6J_yg-BxaLt-xSQWbxzXfU5tiEbxCYenVRSCu5WC6DQiyKz6iBPYLnoBOLAjeunXIIbURyUSs6u-1eWGz6dKddZXPvG1ExMP4zMsT8_bpTKCncLfJnTxTWhd873DnGc1mp0mZkJbvn3zf7cct7T9yGvINz1nQwDymXOC9_nBc4qO5fBWiEuKKp7sx2UHu2bvvxPw0hALUnh8A1yrw3MHeBF4yHXJDxG5oXqGeyp4aIw3qhfIKpE0G496eOWIwR7tK7VwLxK3as62TassZBZLBiUXZukoIg6mYnBTpfusrv18t94k2DlktXNPxi8lMW&amp;recommendedFlavor=HIDDEN_GEM&amp;refId=zNVqKxUCxmulaA7lYEg0qw%3D%3D&amp;trackingId=X5IW9nW5W5wmYkNuCus3Hw%3D%3D&amp;trk=d_flagship3_job_details" xr:uid="{02EBFF89-CD3E-47A0-BFA8-FC267C278A51}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId7"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId11"/>
   <tableParts count="2">
-    <tablePart r:id="rId8"/>
-    <tablePart r:id="rId9"/>
+    <tablePart r:id="rId12"/>
+    <tablePart r:id="rId13"/>
   </tableParts>
 </worksheet>
 </file>